--- a/educ/educ_var_list.xlsx
+++ b/educ/educ_var_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnmuhaimin/Documents/self/bps_api/educ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96EADBE-7106-5D40-97AA-151E2B5AE608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA1F224-2573-5146-A28C-DE01A0560EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A41"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/educ/educ_var_list.xlsx
+++ b/educ/educ_var_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnmuhaimin/Documents/self/bps_api/educ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA1F224-2573-5146-A28C-DE01A0560EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53711860-0531-3546-A841-C1171EC449D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
   <si>
     <t>var_id</t>
   </si>
@@ -838,7 +838,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1126,7 +1126,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1281,6 +1281,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1289,6 +1292,9 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1297,6 +1303,9 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1389,6 +1398,9 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1397,6 +1409,9 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -1405,6 +1420,9 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -1412,6 +1430,9 @@
       </c>
       <c r="B22" t="s">
         <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">

--- a/educ/educ_var_list.xlsx
+++ b/educ/educ_var_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnmuhaimin/Documents/self/bps_api/educ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53711860-0531-3546-A841-C1171EC449D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2432ED23-4BAB-1645-A1BE-7B04AD06779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
   <si>
     <t>var_id</t>
   </si>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1666,6 +1666,9 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -1674,6 +1677,9 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -1682,6 +1688,9 @@
       <c r="B41" t="s">
         <v>41</v>
       </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -1690,6 +1699,9 @@
       <c r="B42" t="s">
         <v>42</v>
       </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -1698,6 +1710,9 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -1706,6 +1721,9 @@
       <c r="B44" t="s">
         <v>44</v>
       </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -1714,6 +1732,9 @@
       <c r="B45" t="s">
         <v>45</v>
       </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -1722,6 +1743,9 @@
       <c r="B46" t="s">
         <v>46</v>
       </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -1730,6 +1754,9 @@
       <c r="B47" t="s">
         <v>47</v>
       </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -1738,176 +1765,242 @@
       <c r="B48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1465</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1466</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1467</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1468</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1469</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1526</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1527</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1607</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1608</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1794</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1796</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1797</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1798</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1799</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1980</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1981</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1982</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1983</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1984</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1986</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1988</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1990</v>
       </c>
@@ -1915,7 +2008,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1992</v>
       </c>
@@ -1923,7 +2016,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1994</v>
       </c>
@@ -1931,7 +2024,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1996</v>
       </c>
@@ -1939,7 +2032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1998</v>
       </c>
@@ -1947,7 +2040,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2000</v>
       </c>

--- a/educ/educ_var_list.xlsx
+++ b/educ/educ_var_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnmuhaimin/Documents/self/bps_api/educ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2432ED23-4BAB-1645-A1BE-7B04AD06779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D7B954-BE2A-A14B-9465-7D6D15558351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="87">
   <si>
     <t>var_id</t>
   </si>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2007,6 +2007,9 @@
       <c r="B70" t="s">
         <v>70</v>
       </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -2015,6 +2018,9 @@
       <c r="B71" t="s">
         <v>71</v>
       </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -2023,6 +2029,9 @@
       <c r="B72" t="s">
         <v>72</v>
       </c>
+      <c r="C72" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -2031,6 +2040,9 @@
       <c r="B73" t="s">
         <v>73</v>
       </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -2039,6 +2051,9 @@
       <c r="B74" t="s">
         <v>74</v>
       </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -2046,6 +2061,9 @@
       </c>
       <c r="B75" t="s">
         <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
